--- a/data/pca/factorExposure/factorExposure_2018-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.00943135121929917</v>
+        <v>-0.0173034701776837</v>
       </c>
       <c r="C2">
-        <v>-0.02626708584489057</v>
+        <v>0.01823235362291966</v>
       </c>
       <c r="D2">
-        <v>-0.02013887824591791</v>
+        <v>0.02920968774694303</v>
       </c>
       <c r="E2">
-        <v>-0.01586415367541466</v>
+        <v>-0.01728285928601566</v>
       </c>
       <c r="F2">
-        <v>0.1037179890286794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.004392828718301493</v>
+      </c>
+      <c r="G2">
+        <v>0.04461684475755159</v>
+      </c>
+      <c r="H2">
+        <v>-0.04871253495961093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08034549287586469</v>
+        <v>-0.07418957120978217</v>
       </c>
       <c r="C3">
-        <v>-0.05268281359340445</v>
+        <v>-0.01217830792399886</v>
       </c>
       <c r="D3">
-        <v>-0.06747017370967007</v>
+        <v>0.0752236256125257</v>
       </c>
       <c r="E3">
-        <v>0.04554432638846526</v>
+        <v>-0.003182960463021625</v>
       </c>
       <c r="F3">
-        <v>0.3601770217928959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01883897970378035</v>
+      </c>
+      <c r="G3">
+        <v>0.1662242022597317</v>
+      </c>
+      <c r="H3">
+        <v>-0.1399492622388358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04343125827623019</v>
+        <v>-0.0407584314876862</v>
       </c>
       <c r="C4">
-        <v>-0.01654883501698051</v>
+        <v>0.004736860591485064</v>
       </c>
       <c r="D4">
-        <v>-0.01429923290412334</v>
+        <v>0.06262649922021267</v>
       </c>
       <c r="E4">
-        <v>-0.04869831292450461</v>
+        <v>0.01883298304282104</v>
       </c>
       <c r="F4">
-        <v>0.06707533567610824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04370699684499559</v>
+      </c>
+      <c r="G4">
+        <v>0.04164929131204095</v>
+      </c>
+      <c r="H4">
+        <v>-0.05861410252383498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03196217523465356</v>
+        <v>-0.02502055985646463</v>
       </c>
       <c r="C6">
-        <v>-0.01719817741745945</v>
+        <v>0.001100750287216038</v>
       </c>
       <c r="D6">
-        <v>-0.01444526503230913</v>
+        <v>0.06188071002503535</v>
       </c>
       <c r="E6">
-        <v>-0.02801990132805834</v>
+        <v>0.003347130475144163</v>
       </c>
       <c r="F6">
-        <v>0.01137218963848527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02980777837747106</v>
+      </c>
+      <c r="G6">
+        <v>0.01571375493909904</v>
+      </c>
+      <c r="H6">
+        <v>-0.06602906506344908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03996603269628532</v>
+        <v>-0.01624880557329608</v>
       </c>
       <c r="C7">
-        <v>0.0257244030764686</v>
+        <v>0.00309875508868016</v>
       </c>
       <c r="D7">
-        <v>-0.02433348562291766</v>
+        <v>0.03438279428146145</v>
       </c>
       <c r="E7">
-        <v>-0.03508272144696085</v>
+        <v>0.04305568348834271</v>
       </c>
       <c r="F7">
-        <v>0.04439140917114047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.002609164449629839</v>
+      </c>
+      <c r="G7">
+        <v>0.02642676586024185</v>
+      </c>
+      <c r="H7">
+        <v>-0.04581650032088354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01737022132403437</v>
+        <v>-0.004102379386674455</v>
       </c>
       <c r="C8">
-        <v>-0.006985556274441371</v>
+        <v>-0.001945218145839393</v>
       </c>
       <c r="D8">
-        <v>-0.02498953786728707</v>
+        <v>0.0149061673082326</v>
       </c>
       <c r="E8">
-        <v>-0.04100602992803791</v>
+        <v>0.007835298371991394</v>
       </c>
       <c r="F8">
-        <v>0.07416196913163843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01734660390499805</v>
+      </c>
+      <c r="G8">
+        <v>0.04146812037131292</v>
+      </c>
+      <c r="H8">
+        <v>-0.04025719032263382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03346094780962904</v>
+        <v>-0.03091998265798023</v>
       </c>
       <c r="C9">
-        <v>-0.01272241758550836</v>
+        <v>0.001500819948376139</v>
       </c>
       <c r="D9">
-        <v>-0.01974083170783312</v>
+        <v>0.04625311252176593</v>
       </c>
       <c r="E9">
-        <v>-0.03817515273656867</v>
+        <v>0.008304995847806874</v>
       </c>
       <c r="F9">
-        <v>0.0833650711249644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01964940013187085</v>
+      </c>
+      <c r="G9">
+        <v>0.04641892171762699</v>
+      </c>
+      <c r="H9">
+        <v>-0.05698284987085677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03479287805736967</v>
+        <v>-0.1217134894998528</v>
       </c>
       <c r="C10">
-        <v>-0.006997469863394238</v>
+        <v>-0.005855529072899661</v>
       </c>
       <c r="D10">
-        <v>0.1037065067901618</v>
+        <v>-0.1597934448717702</v>
       </c>
       <c r="E10">
-        <v>0.1205272062485297</v>
+        <v>0.001049200017598318</v>
       </c>
       <c r="F10">
-        <v>0.05877166218576009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0354070670469162</v>
+      </c>
+      <c r="G10">
+        <v>0.03045053087106124</v>
+      </c>
+      <c r="H10">
+        <v>-0.00289752123944481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0262989937063203</v>
+        <v>-0.01721396218765486</v>
       </c>
       <c r="C11">
-        <v>-0.02270411739771364</v>
+        <v>-0.009847711995970674</v>
       </c>
       <c r="D11">
-        <v>-0.02427184136104784</v>
+        <v>0.04964887778930121</v>
       </c>
       <c r="E11">
-        <v>-0.03462620339846599</v>
+        <v>-0.001572665555075418</v>
       </c>
       <c r="F11">
-        <v>0.03813876350891295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01126748974055538</v>
+      </c>
+      <c r="G11">
+        <v>0.02777728792316131</v>
+      </c>
+      <c r="H11">
+        <v>-0.05019327360149143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03557971454543089</v>
+        <v>-0.02211147198125282</v>
       </c>
       <c r="C12">
-        <v>-0.02240896735396908</v>
+        <v>-0.006293790233030538</v>
       </c>
       <c r="D12">
-        <v>-0.01812249077336623</v>
+        <v>0.04806118526920845</v>
       </c>
       <c r="E12">
-        <v>-0.04179963781079531</v>
+        <v>0.0092817213259167</v>
       </c>
       <c r="F12">
-        <v>0.01235311021820271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01432553569806735</v>
+      </c>
+      <c r="G12">
+        <v>0.008121246845903455</v>
+      </c>
+      <c r="H12">
+        <v>-0.02267418859003854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008902028142257535</v>
+        <v>-0.02409139501306887</v>
       </c>
       <c r="C13">
-        <v>-0.02256672290590542</v>
+        <v>0.01398957984298537</v>
       </c>
       <c r="D13">
-        <v>-0.002832432736850806</v>
+        <v>0.02435677543156227</v>
       </c>
       <c r="E13">
-        <v>-0.01620495602547001</v>
+        <v>-0.01178887851267302</v>
       </c>
       <c r="F13">
-        <v>0.07520880213760192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02070630597819475</v>
+      </c>
+      <c r="G13">
+        <v>0.06240279750187082</v>
+      </c>
+      <c r="H13">
+        <v>-0.07781012920417087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02051418867277895</v>
+        <v>-0.01569064365061961</v>
       </c>
       <c r="C14">
-        <v>0.0002826775084027193</v>
+        <v>0.001301693108104485</v>
       </c>
       <c r="D14">
-        <v>-0.01079359674354214</v>
+        <v>0.01539239247938766</v>
       </c>
       <c r="E14">
-        <v>-0.03118663283339516</v>
+        <v>0.01407880906351375</v>
       </c>
       <c r="F14">
-        <v>0.05381549754853455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01360592152664013</v>
+      </c>
+      <c r="G14">
+        <v>0.04166254824309717</v>
+      </c>
+      <c r="H14">
+        <v>-0.01704221752836848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02593286108783341</v>
+        <v>-0.02027336550868458</v>
       </c>
       <c r="C16">
-        <v>-0.02198845776503205</v>
+        <v>-0.009576369186933685</v>
       </c>
       <c r="D16">
-        <v>-0.02506079684708925</v>
+        <v>0.04048512052894333</v>
       </c>
       <c r="E16">
-        <v>-0.04057484276342385</v>
+        <v>0.001872847284570115</v>
       </c>
       <c r="F16">
-        <v>0.03683811556307268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01464612644418632</v>
+      </c>
+      <c r="G16">
+        <v>0.02269426131124247</v>
+      </c>
+      <c r="H16">
+        <v>-0.03863539466017327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02817144587022316</v>
+        <v>-0.02367181943451969</v>
       </c>
       <c r="C19">
-        <v>-0.02264931686397074</v>
+        <v>0.001211275559443224</v>
       </c>
       <c r="D19">
-        <v>-0.02581794407026884</v>
+        <v>0.04502275928691032</v>
       </c>
       <c r="E19">
-        <v>-0.0380457369194878</v>
+        <v>0.006788403405043378</v>
       </c>
       <c r="F19">
-        <v>0.08710225014967753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02453458554759199</v>
+      </c>
+      <c r="G19">
+        <v>0.05450906984861506</v>
+      </c>
+      <c r="H19">
+        <v>-0.06609673927352758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0001608946622777214</v>
+        <v>-0.007634473970579316</v>
       </c>
       <c r="C20">
-        <v>0.006820291878594988</v>
+        <v>0.00580122643234203</v>
       </c>
       <c r="D20">
-        <v>-0.009956114531577452</v>
+        <v>0.02217171698928567</v>
       </c>
       <c r="E20">
-        <v>-0.02254363938739379</v>
+        <v>0.003495104306194796</v>
       </c>
       <c r="F20">
-        <v>0.06942667152727769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01299494129698706</v>
+      </c>
+      <c r="G20">
+        <v>0.05652705544571564</v>
+      </c>
+      <c r="H20">
+        <v>-0.03255020136948289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01381118827746526</v>
+        <v>-0.01300225606794277</v>
       </c>
       <c r="C21">
-        <v>0.0192007671968033</v>
+        <v>0.007216283664589476</v>
       </c>
       <c r="D21">
-        <v>-0.03387063458349276</v>
+        <v>0.02527574207347287</v>
       </c>
       <c r="E21">
-        <v>-0.02202425103182609</v>
+        <v>0.01983865789139282</v>
       </c>
       <c r="F21">
-        <v>0.03430756898403287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.006571433797427318</v>
+      </c>
+      <c r="G21">
+        <v>0.05022316112720712</v>
+      </c>
+      <c r="H21">
+        <v>-0.0460744440319996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02395397028386825</v>
+        <v>-0.01534974790529996</v>
       </c>
       <c r="C24">
-        <v>-0.02005363232937476</v>
+        <v>-0.004177209056367428</v>
       </c>
       <c r="D24">
-        <v>-0.009828271159415709</v>
+        <v>0.04361566834246999</v>
       </c>
       <c r="E24">
-        <v>-0.0260775270443409</v>
+        <v>0.0004046710187913482</v>
       </c>
       <c r="F24">
-        <v>0.03891524089441981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01012208020815334</v>
+      </c>
+      <c r="G24">
+        <v>0.01744734043382621</v>
+      </c>
+      <c r="H24">
+        <v>-0.04686638732835213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02726199060135746</v>
+        <v>-0.02727617733289692</v>
       </c>
       <c r="C25">
-        <v>-0.01807507394629606</v>
+        <v>-0.001858409659043701</v>
       </c>
       <c r="D25">
-        <v>-0.02583488620323112</v>
+        <v>0.04652013618224063</v>
       </c>
       <c r="E25">
-        <v>-0.03086918550858593</v>
+        <v>0.005872207942856383</v>
       </c>
       <c r="F25">
-        <v>0.04077728560263037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01769684984455202</v>
+      </c>
+      <c r="G25">
+        <v>0.02256592757285559</v>
+      </c>
+      <c r="H25">
+        <v>-0.04463177954921999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0147050450015818</v>
+        <v>-0.01465367593018051</v>
       </c>
       <c r="C26">
-        <v>-0.01319409360875454</v>
+        <v>0.01910499280752154</v>
       </c>
       <c r="D26">
-        <v>-0.02200539619483195</v>
+        <v>0.009923439458568897</v>
       </c>
       <c r="E26">
-        <v>-0.008173638518832781</v>
+        <v>-0.0002745636545497143</v>
       </c>
       <c r="F26">
-        <v>0.05876713195184833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.002236371470678479</v>
+      </c>
+      <c r="G26">
+        <v>0.02965830539288376</v>
+      </c>
+      <c r="H26">
+        <v>-0.02595717795974892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03978491116534269</v>
+        <v>-0.01810194364938838</v>
       </c>
       <c r="C27">
-        <v>-0.02801844748314113</v>
+        <v>-0.006595137832856601</v>
       </c>
       <c r="D27">
-        <v>0.01459252842019231</v>
+        <v>0.01439022579752901</v>
       </c>
       <c r="E27">
-        <v>-0.03659280209254887</v>
+        <v>0.004222383243754702</v>
       </c>
       <c r="F27">
-        <v>0.02270567862930047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01180405662979565</v>
+      </c>
+      <c r="G27">
+        <v>0.00681361166360765</v>
+      </c>
+      <c r="H27">
+        <v>0.0006335399209926747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05856828444861364</v>
+        <v>-0.1703876615544684</v>
       </c>
       <c r="C28">
-        <v>-0.01245227957666322</v>
+        <v>0.002985480432793836</v>
       </c>
       <c r="D28">
-        <v>0.1409713918918078</v>
+        <v>-0.205208115605155</v>
       </c>
       <c r="E28">
-        <v>0.1598474561639343</v>
+        <v>0.01071687319305293</v>
       </c>
       <c r="F28">
-        <v>0.05206438838716421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03055011570568361</v>
+      </c>
+      <c r="G28">
+        <v>0.01790628624998051</v>
+      </c>
+      <c r="H28">
+        <v>0.004921023890160589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02413073511845351</v>
+        <v>-0.02024513272344982</v>
       </c>
       <c r="C29">
-        <v>-0.002217515657883598</v>
+        <v>-0.0001781814352098669</v>
       </c>
       <c r="D29">
-        <v>-0.01081057782594779</v>
+        <v>0.0158920757435726</v>
       </c>
       <c r="E29">
-        <v>-0.03563118574067898</v>
+        <v>0.01406408421144666</v>
       </c>
       <c r="F29">
-        <v>0.05195133401854679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01490150639041513</v>
+      </c>
+      <c r="G29">
+        <v>0.04069062517893167</v>
+      </c>
+      <c r="H29">
+        <v>-0.0102355433263989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04711543035665815</v>
+        <v>-0.04360684099613743</v>
       </c>
       <c r="C30">
-        <v>-0.08114215483881435</v>
+        <v>0.002975749551077604</v>
       </c>
       <c r="D30">
-        <v>-0.02000905766964772</v>
+        <v>0.09369800058664379</v>
       </c>
       <c r="E30">
-        <v>-0.06445096422471168</v>
+        <v>-0.03254471677766944</v>
       </c>
       <c r="F30">
-        <v>0.09766534256962972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04667891229612956</v>
+      </c>
+      <c r="G30">
+        <v>0.0627410005098273</v>
+      </c>
+      <c r="H30">
+        <v>-0.07943805329273358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04704388275978533</v>
+        <v>-0.04794378049444917</v>
       </c>
       <c r="C31">
-        <v>-0.04227638520050805</v>
+        <v>-0.009478781666053602</v>
       </c>
       <c r="D31">
-        <v>-0.012773044452314</v>
+        <v>0.02950053002042982</v>
       </c>
       <c r="E31">
-        <v>-0.02736747074011836</v>
+        <v>-0.004301616367883125</v>
       </c>
       <c r="F31">
-        <v>0.03605384085488134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005305950083677478</v>
+      </c>
+      <c r="G31">
+        <v>0.01978479451149369</v>
+      </c>
+      <c r="H31">
+        <v>-0.00688826831332606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02489723227733486</v>
+        <v>-0.01213807577821414</v>
       </c>
       <c r="C32">
-        <v>0.008591019169293522</v>
+        <v>-0.01312628757836001</v>
       </c>
       <c r="D32">
-        <v>-0.03728717692953943</v>
+        <v>0.009383998976000089</v>
       </c>
       <c r="E32">
-        <v>-0.06230076425529044</v>
+        <v>0.02967066896196434</v>
       </c>
       <c r="F32">
-        <v>0.05527012522603877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03770843180653617</v>
+      </c>
+      <c r="G32">
+        <v>0.03373019103333083</v>
+      </c>
+      <c r="H32">
+        <v>-0.05312913078766068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0280060149444936</v>
+        <v>-0.02831980657532077</v>
       </c>
       <c r="C33">
-        <v>-0.04687049479586903</v>
+        <v>0.0004735554410685614</v>
       </c>
       <c r="D33">
-        <v>-0.04554794187850349</v>
+        <v>0.04644036894120852</v>
       </c>
       <c r="E33">
-        <v>-0.02772684508295094</v>
+        <v>-0.01965407885771507</v>
       </c>
       <c r="F33">
-        <v>0.06803043261819393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.001194092882078424</v>
+      </c>
+      <c r="G33">
+        <v>0.04975536178658246</v>
+      </c>
+      <c r="H33">
+        <v>-0.0585999169344398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.030166694507717</v>
+        <v>-0.02479330595594187</v>
       </c>
       <c r="C34">
-        <v>-0.01468853648965483</v>
+        <v>-0.01778528973151555</v>
       </c>
       <c r="D34">
-        <v>-0.02119994800754123</v>
+        <v>0.0441506438678281</v>
       </c>
       <c r="E34">
-        <v>-0.04616537029675138</v>
+        <v>0.01228819816539414</v>
       </c>
       <c r="F34">
-        <v>0.044474380490883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01794063574429102</v>
+      </c>
+      <c r="G34">
+        <v>0.01440307367880737</v>
+      </c>
+      <c r="H34">
+        <v>-0.03700695115330936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0157437375489532</v>
+        <v>-0.01663259281965679</v>
       </c>
       <c r="C36">
-        <v>-0.0002727876304801343</v>
+        <v>0.006613219441500317</v>
       </c>
       <c r="D36">
-        <v>-0.01196185354490469</v>
+        <v>0.005961559425224744</v>
       </c>
       <c r="E36">
-        <v>-0.01834091292108062</v>
+        <v>0.008557997675623555</v>
       </c>
       <c r="F36">
-        <v>0.03022498531222648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002140945273178337</v>
+      </c>
+      <c r="G36">
+        <v>0.02190420392686604</v>
+      </c>
+      <c r="H36">
+        <v>-0.01977494500183011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004311853366227027</v>
+        <v>-0.02574113283363291</v>
       </c>
       <c r="C38">
-        <v>-0.004300942957676452</v>
+        <v>-0.01546664486315257</v>
       </c>
       <c r="D38">
-        <v>-0.01387683123420585</v>
+        <v>0.01568600297752236</v>
       </c>
       <c r="E38">
-        <v>0.02148598876774348</v>
+        <v>-0.0007735944091267223</v>
       </c>
       <c r="F38">
-        <v>0.04227316945539431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.008803292000535114</v>
+      </c>
+      <c r="G38">
+        <v>0.02569189544519481</v>
+      </c>
+      <c r="H38">
+        <v>-0.04426639466865414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02406414552470349</v>
+        <v>-0.01055035946619182</v>
       </c>
       <c r="C39">
-        <v>-0.02297462667310808</v>
+        <v>-0.005725889300707672</v>
       </c>
       <c r="D39">
-        <v>-0.0417183642014668</v>
+        <v>0.08923201013239614</v>
       </c>
       <c r="E39">
-        <v>-0.04892573692554159</v>
+        <v>-0.007952806426080157</v>
       </c>
       <c r="F39">
-        <v>0.05377452591473499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01661393320463592</v>
+      </c>
+      <c r="G39">
+        <v>0.04159802879016421</v>
+      </c>
+      <c r="H39">
+        <v>-0.07768601262553929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0144416044343915</v>
+        <v>-0.02727782366465706</v>
       </c>
       <c r="C40">
-        <v>-0.05153116971080541</v>
+        <v>-6.937904349632578e-05</v>
       </c>
       <c r="D40">
-        <v>-0.0003570326897365038</v>
+        <v>0.03435523861329354</v>
       </c>
       <c r="E40">
-        <v>-0.03911946933514751</v>
+        <v>-0.02531104563617835</v>
       </c>
       <c r="F40">
-        <v>0.05835296099809261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03444383250540788</v>
+      </c>
+      <c r="G40">
+        <v>0.02374045652773417</v>
+      </c>
+      <c r="H40">
+        <v>-0.07173891187851525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003301183699673234</v>
+        <v>-0.01311894675146373</v>
       </c>
       <c r="C41">
-        <v>-0.0001219793412941305</v>
+        <v>0.002533144859113686</v>
       </c>
       <c r="D41">
-        <v>-0.009446526963616191</v>
+        <v>-0.01294844333022947</v>
       </c>
       <c r="E41">
-        <v>0.0001698183106337079</v>
+        <v>0.002535911123961756</v>
       </c>
       <c r="F41">
-        <v>0.009060697112294052</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002999803190349773</v>
+      </c>
+      <c r="G41">
+        <v>0.0009467722959022065</v>
+      </c>
+      <c r="H41">
+        <v>0.0009249364014325967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2290373037134476</v>
+        <v>-0.1432956404182011</v>
       </c>
       <c r="C42">
-        <v>-0.2484175573201653</v>
+        <v>0.0765861307285699</v>
       </c>
       <c r="D42">
-        <v>-0.6176408642867519</v>
+        <v>0.2410659768846659</v>
       </c>
       <c r="E42">
-        <v>0.6145345677305855</v>
+        <v>-0.2124990130060833</v>
       </c>
       <c r="F42">
-        <v>-0.271574906991648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.894857451902405</v>
+      </c>
+      <c r="G42">
+        <v>-0.2200623195031037</v>
+      </c>
+      <c r="H42">
+        <v>-0.003582307333184339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002696784572577429</v>
+        <v>-0.01387506303199721</v>
       </c>
       <c r="C43">
-        <v>-0.002857467120754135</v>
+        <v>0.002854966654243902</v>
       </c>
       <c r="D43">
-        <v>-0.01323049706994511</v>
+        <v>-0.008812979620705885</v>
       </c>
       <c r="E43">
-        <v>-0.002180200027450245</v>
+        <v>-0.0004923966832714869</v>
       </c>
       <c r="F43">
-        <v>0.02816402773706484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003828016018602712</v>
+      </c>
+      <c r="G43">
+        <v>0.002668059775722076</v>
+      </c>
+      <c r="H43">
+        <v>-0.009118841241696344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02591790980377473</v>
+        <v>-0.01587736950058364</v>
       </c>
       <c r="C44">
-        <v>-0.004379006657482891</v>
+        <v>-0.005007158263688186</v>
       </c>
       <c r="D44">
-        <v>-0.02250391094877285</v>
+        <v>0.04125344123474546</v>
       </c>
       <c r="E44">
-        <v>-0.0176034078213841</v>
+        <v>0.01160296307518875</v>
       </c>
       <c r="F44">
-        <v>0.1010777538291072</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001841678841335846</v>
+      </c>
+      <c r="G44">
+        <v>0.04275529763019669</v>
+      </c>
+      <c r="H44">
+        <v>-0.06794557778677716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01804160725295247</v>
+        <v>-0.01241827865834407</v>
       </c>
       <c r="C46">
-        <v>-0.01364166293133391</v>
+        <v>0.00574062291213777</v>
       </c>
       <c r="D46">
-        <v>-0.03123012407875072</v>
+        <v>0.01470198779457663</v>
       </c>
       <c r="E46">
-        <v>-0.03851015392680126</v>
+        <v>0.0010264161022313</v>
       </c>
       <c r="F46">
-        <v>0.06401514549190727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.009863763238891781</v>
+      </c>
+      <c r="G46">
+        <v>0.0452058270545312</v>
+      </c>
+      <c r="H46">
+        <v>-0.01192146944548425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07513575576357293</v>
+        <v>-0.0680662755126638</v>
       </c>
       <c r="C47">
-        <v>-0.05610694544120157</v>
+        <v>-0.0247870518061147</v>
       </c>
       <c r="D47">
-        <v>-0.007354828056487525</v>
+        <v>0.05520284541853619</v>
       </c>
       <c r="E47">
-        <v>-0.03730379342543915</v>
+        <v>0.004111382866383704</v>
       </c>
       <c r="F47">
-        <v>0.01736330583185476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01280267504649084</v>
+      </c>
+      <c r="G47">
+        <v>-0.008902338730060074</v>
+      </c>
+      <c r="H47">
+        <v>0.01661674141509428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01601816228848939</v>
+        <v>-0.01837584350336538</v>
       </c>
       <c r="C48">
-        <v>-0.01163617216883575</v>
+        <v>-0.004597681610740484</v>
       </c>
       <c r="D48">
-        <v>-0.01752087331619864</v>
+        <v>0.01496874246011098</v>
       </c>
       <c r="E48">
-        <v>-0.02078062359412353</v>
+        <v>0.001241582000897657</v>
       </c>
       <c r="F48">
-        <v>0.03518104974056192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006325286562319442</v>
+      </c>
+      <c r="G48">
+        <v>0.02358114262017976</v>
+      </c>
+      <c r="H48">
+        <v>-0.02113096414670853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08050443774128946</v>
+        <v>-0.06782611459896719</v>
       </c>
       <c r="C50">
-        <v>-0.04183657279092994</v>
+        <v>-0.0222836019151044</v>
       </c>
       <c r="D50">
-        <v>-0.02857302159072144</v>
+        <v>0.05426143703127256</v>
       </c>
       <c r="E50">
-        <v>-0.0375568410569666</v>
+        <v>0.0149848121487076</v>
       </c>
       <c r="F50">
-        <v>0.02801721644983496</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004416545334855295</v>
+      </c>
+      <c r="G50">
+        <v>0.005564019512072667</v>
+      </c>
+      <c r="H50">
+        <v>0.009717809454190821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01769823983227394</v>
+        <v>-0.01796877241845399</v>
       </c>
       <c r="C51">
-        <v>-0.005615996415774066</v>
+        <v>0.001496805496715786</v>
       </c>
       <c r="D51">
-        <v>0.001665745530509264</v>
+        <v>0.009997365569093031</v>
       </c>
       <c r="E51">
-        <v>0.003253203843432492</v>
+        <v>0.008480961769530181</v>
       </c>
       <c r="F51">
-        <v>0.08761699310785546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.00321032491901726</v>
+      </c>
+      <c r="G51">
+        <v>0.03831726962648022</v>
+      </c>
+      <c r="H51">
+        <v>-0.05105452027421672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08175493993874339</v>
+        <v>-0.08087821961116173</v>
       </c>
       <c r="C53">
-        <v>-0.06176113727488707</v>
+        <v>-0.03161052535577533</v>
       </c>
       <c r="D53">
-        <v>-0.01107884665489934</v>
+        <v>0.0928669402132412</v>
       </c>
       <c r="E53">
-        <v>-0.05355992290838141</v>
+        <v>0.006365069832362312</v>
       </c>
       <c r="F53">
-        <v>-0.03652744089726619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02902108462005918</v>
+      </c>
+      <c r="G53">
+        <v>-0.03459998888695166</v>
+      </c>
+      <c r="H53">
+        <v>0.02713964874683712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01923435788994033</v>
+        <v>-0.02781694596020351</v>
       </c>
       <c r="C54">
-        <v>-0.001050610539870501</v>
+        <v>-0.007710848507354069</v>
       </c>
       <c r="D54">
-        <v>-0.0064929097853039</v>
+        <v>-0.009939571426695874</v>
       </c>
       <c r="E54">
-        <v>-0.0272528477561102</v>
+        <v>0.007784192188150211</v>
       </c>
       <c r="F54">
-        <v>0.03740082762926195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004375825851809475</v>
+      </c>
+      <c r="G54">
+        <v>0.03877026134551514</v>
+      </c>
+      <c r="H54">
+        <v>-0.006035852156653195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08561461337014298</v>
+        <v>-0.06591872088396095</v>
       </c>
       <c r="C55">
-        <v>-0.0524626502366377</v>
+        <v>-0.02819001176834021</v>
       </c>
       <c r="D55">
-        <v>-0.02024597282924714</v>
+        <v>0.08723262862291237</v>
       </c>
       <c r="E55">
-        <v>-0.05602100768374907</v>
+        <v>0.01292700208000165</v>
       </c>
       <c r="F55">
-        <v>-0.02909906984281464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02037575890717517</v>
+      </c>
+      <c r="G55">
+        <v>-0.01307790789431703</v>
+      </c>
+      <c r="H55">
+        <v>0.03604898614283588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1160565470302569</v>
+        <v>-0.114054572377052</v>
       </c>
       <c r="C56">
-        <v>-0.09027535569252686</v>
+        <v>-0.04803663106453304</v>
       </c>
       <c r="D56">
-        <v>0.02219841158438339</v>
+        <v>0.1135231002549939</v>
       </c>
       <c r="E56">
-        <v>-0.08554571006879359</v>
+        <v>0.004032379440464702</v>
       </c>
       <c r="F56">
-        <v>-0.07004938999728519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05389400086762949</v>
+      </c>
+      <c r="G56">
+        <v>-0.06707148367567282</v>
+      </c>
+      <c r="H56">
+        <v>0.05384060514915859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03526078845818049</v>
+        <v>-0.03306133313840104</v>
       </c>
       <c r="C57">
-        <v>-0.03956836377672679</v>
+        <v>0.01312293761232845</v>
       </c>
       <c r="D57">
-        <v>-0.01404613896712478</v>
+        <v>0.03497887541856637</v>
       </c>
       <c r="E57">
-        <v>-0.0003664541512384955</v>
+        <v>-0.009602663913226249</v>
       </c>
       <c r="F57">
-        <v>0.04997722109561743</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.005494978287611221</v>
+      </c>
+      <c r="G57">
+        <v>0.0711273817512056</v>
+      </c>
+      <c r="H57">
+        <v>-0.05129784018641721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1330732546207742</v>
+        <v>-0.1355910044652172</v>
       </c>
       <c r="C58">
-        <v>-0.2208551761977235</v>
+        <v>-0.04034756729843643</v>
       </c>
       <c r="D58">
-        <v>-0.1299736399311511</v>
+        <v>0.1606536265101792</v>
       </c>
       <c r="E58">
-        <v>-0.1024839012293751</v>
+        <v>-0.2284081611383521</v>
       </c>
       <c r="F58">
-        <v>0.5064911900463868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.09015126622552147</v>
+      </c>
+      <c r="G58">
+        <v>0.8002113225911318</v>
+      </c>
+      <c r="H58">
+        <v>0.4178816438936906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04292970565069817</v>
+        <v>-0.1832742594696005</v>
       </c>
       <c r="C59">
-        <v>-0.03099389543685385</v>
+        <v>-0.00566263965891998</v>
       </c>
       <c r="D59">
-        <v>0.1467514378488799</v>
+        <v>-0.2033134929342874</v>
       </c>
       <c r="E59">
-        <v>0.1234793031716608</v>
+        <v>-0.006663746244933779</v>
       </c>
       <c r="F59">
-        <v>0.07523481510752514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.001185147831202873</v>
+      </c>
+      <c r="G59">
+        <v>0.01796900310399902</v>
+      </c>
+      <c r="H59">
+        <v>-0.02680207201552472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1131691967696563</v>
+        <v>-0.197328996946894</v>
       </c>
       <c r="C60">
-        <v>-0.1254598720430621</v>
+        <v>-0.02437418812992106</v>
       </c>
       <c r="D60">
-        <v>-0.006029279673298117</v>
+        <v>0.03509795281266027</v>
       </c>
       <c r="E60">
-        <v>0.03220938978161356</v>
+        <v>-0.0555363818638036</v>
       </c>
       <c r="F60">
-        <v>0.1608313491440272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.05348678096276591</v>
+      </c>
+      <c r="G60">
+        <v>0.03388865453501626</v>
+      </c>
+      <c r="H60">
+        <v>-0.3609675213523785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02061003718868281</v>
+        <v>-0.01880177705900024</v>
       </c>
       <c r="C61">
-        <v>-0.01389059839907468</v>
+        <v>-0.00899675320824527</v>
       </c>
       <c r="D61">
-        <v>-0.02969381855952036</v>
+        <v>0.05684472010281954</v>
       </c>
       <c r="E61">
-        <v>-0.03238407438324083</v>
+        <v>0.001927662548747723</v>
       </c>
       <c r="F61">
-        <v>0.02470733473974226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02057154492139909</v>
+      </c>
+      <c r="G61">
+        <v>0.02734065916817787</v>
+      </c>
+      <c r="H61">
+        <v>-0.0596286647816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009179295551379243</v>
+        <v>-0.009773840710111628</v>
       </c>
       <c r="C63">
-        <v>-0.007083696818924995</v>
+        <v>0.002222181044919551</v>
       </c>
       <c r="D63">
-        <v>-0.02604301713339024</v>
+        <v>0.0241126603617433</v>
       </c>
       <c r="E63">
-        <v>-0.02533822019700776</v>
+        <v>0.004236146769140979</v>
       </c>
       <c r="F63">
-        <v>0.009470048206620224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0105265775419437</v>
+      </c>
+      <c r="G63">
+        <v>0.01909666380266195</v>
+      </c>
+      <c r="H63">
+        <v>-0.01701110122116564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03576072404970158</v>
+        <v>-0.03631421815743285</v>
       </c>
       <c r="C64">
-        <v>-0.009036308125863528</v>
+        <v>-0.0081726126192266</v>
       </c>
       <c r="D64">
-        <v>-0.01799457624948802</v>
+        <v>0.04290848588167968</v>
       </c>
       <c r="E64">
-        <v>-0.03750590100714933</v>
+        <v>0.0104148803185047</v>
       </c>
       <c r="F64">
-        <v>0.02951007202384079</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002819814415007018</v>
+      </c>
+      <c r="G64">
+        <v>0.007155398446599345</v>
+      </c>
+      <c r="H64">
+        <v>-0.04911806367519876</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03507701953091841</v>
+        <v>-0.03967646462330243</v>
       </c>
       <c r="C65">
-        <v>-0.01871934258490245</v>
+        <v>-0.001250339848627485</v>
       </c>
       <c r="D65">
-        <v>-0.01475457803418541</v>
+        <v>0.07045215097276171</v>
       </c>
       <c r="E65">
-        <v>-0.03006438034211906</v>
+        <v>0.005462969782373396</v>
       </c>
       <c r="F65">
-        <v>0.005074160658740944</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03888405179426432</v>
+      </c>
+      <c r="G65">
+        <v>-0.001876051252181549</v>
+      </c>
+      <c r="H65">
+        <v>-0.07439715261000132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0283897384439192</v>
+        <v>-0.01819698730103449</v>
       </c>
       <c r="C66">
-        <v>-0.03535705079767262</v>
+        <v>-0.01267595937866206</v>
       </c>
       <c r="D66">
-        <v>-0.03672333649282514</v>
+        <v>0.112983648690817</v>
       </c>
       <c r="E66">
-        <v>-0.06862289537038986</v>
+        <v>-0.009707392125450116</v>
       </c>
       <c r="F66">
-        <v>0.04020512292289875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0383455452855662</v>
+      </c>
+      <c r="G66">
+        <v>0.03823240027475091</v>
+      </c>
+      <c r="H66">
+        <v>-0.08109737769014976</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01192304564134774</v>
+        <v>-0.04645607906759128</v>
       </c>
       <c r="C67">
-        <v>-0.01368340441392989</v>
+        <v>-0.01713586733381841</v>
       </c>
       <c r="D67">
-        <v>-0.002419729198172231</v>
+        <v>0.01896408497318983</v>
       </c>
       <c r="E67">
-        <v>0.01998135751056745</v>
+        <v>-0.003129523538938714</v>
       </c>
       <c r="F67">
-        <v>0.02503530313844122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01868533197864755</v>
+      </c>
+      <c r="G67">
+        <v>0.01595628095676271</v>
+      </c>
+      <c r="H67">
+        <v>-0.04385197040597019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06127674200682898</v>
+        <v>-0.1816885987902307</v>
       </c>
       <c r="C68">
-        <v>-0.03092785152066286</v>
+        <v>0.01753924099717243</v>
       </c>
       <c r="D68">
-        <v>0.160406592369407</v>
+        <v>-0.224588112693263</v>
       </c>
       <c r="E68">
-        <v>0.134138969560668</v>
+        <v>-0.005583582778346538</v>
       </c>
       <c r="F68">
-        <v>0.06816236031563495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03952429768270194</v>
+      </c>
+      <c r="G68">
+        <v>0.02715157132658347</v>
+      </c>
+      <c r="H68">
+        <v>0.05110666816989787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05385991726693601</v>
+        <v>-0.05981157005672618</v>
       </c>
       <c r="C69">
-        <v>-0.04568873832614854</v>
+        <v>-0.02666084303138968</v>
       </c>
       <c r="D69">
-        <v>0.002372169279578825</v>
+        <v>0.05047286217647001</v>
       </c>
       <c r="E69">
-        <v>-0.04281401680245917</v>
+        <v>0.001186898594695317</v>
       </c>
       <c r="F69">
-        <v>0.01280093728283462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02884931697557396</v>
+      </c>
+      <c r="G69">
+        <v>-0.007616053609800523</v>
+      </c>
+      <c r="H69">
+        <v>-0.01185475592828361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06178873315903954</v>
+        <v>-0.1661360727676452</v>
       </c>
       <c r="C71">
-        <v>-0.03905955930328463</v>
+        <v>0.005723719291166961</v>
       </c>
       <c r="D71">
-        <v>0.1534504571866392</v>
+        <v>-0.1830605516093487</v>
       </c>
       <c r="E71">
-        <v>0.1831666798426258</v>
+        <v>-0.011228251128784</v>
       </c>
       <c r="F71">
-        <v>0.06495453635018462</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.047867283015184</v>
+      </c>
+      <c r="G71">
+        <v>0.03005537350544622</v>
+      </c>
+      <c r="H71">
+        <v>0.01907137704432973</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09010103643692943</v>
+        <v>-0.07175955416141247</v>
       </c>
       <c r="C72">
-        <v>-0.08352936905876768</v>
+        <v>-0.03497705686977787</v>
       </c>
       <c r="D72">
-        <v>0.001072295449112215</v>
+        <v>0.08520339829419121</v>
       </c>
       <c r="E72">
-        <v>-0.07704975375564191</v>
+        <v>-0.01643435455282839</v>
       </c>
       <c r="F72">
-        <v>0.0735837040057874</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.06489937405534467</v>
+      </c>
+      <c r="G72">
+        <v>0.02466848815926416</v>
+      </c>
+      <c r="H72">
+        <v>-0.131072773323335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1520739549441147</v>
+        <v>-0.2557364569559692</v>
       </c>
       <c r="C73">
-        <v>-0.2019649522136577</v>
+        <v>-0.03544489407933435</v>
       </c>
       <c r="D73">
-        <v>0.01101763543624342</v>
+        <v>0.1108731091801427</v>
       </c>
       <c r="E73">
-        <v>0.09584376434383016</v>
+        <v>-0.09495964581031013</v>
       </c>
       <c r="F73">
-        <v>0.208759050536873</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.05994490015550111</v>
+      </c>
+      <c r="G73">
+        <v>0.05084083422100279</v>
+      </c>
+      <c r="H73">
+        <v>-0.4561051651625584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1105653704740266</v>
+        <v>-0.1121874518943078</v>
       </c>
       <c r="C74">
-        <v>-0.08299399046254825</v>
+        <v>-0.04793550645244621</v>
       </c>
       <c r="D74">
-        <v>0.0003966142878420241</v>
+        <v>0.1181900783685048</v>
       </c>
       <c r="E74">
-        <v>-0.05349052491957137</v>
+        <v>0.01059431344472227</v>
       </c>
       <c r="F74">
-        <v>-0.08427757925846478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03888531770546558</v>
+      </c>
+      <c r="G74">
+        <v>-0.05261261160521045</v>
+      </c>
+      <c r="H74">
+        <v>0.01816447395182254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1762043709895506</v>
+        <v>-0.2188677261359418</v>
       </c>
       <c r="C75">
-        <v>-0.1574691649572633</v>
+        <v>-0.08862544610618457</v>
       </c>
       <c r="D75">
-        <v>0.05198139945156949</v>
+        <v>0.1800967156047926</v>
       </c>
       <c r="E75">
-        <v>-0.1331305658220212</v>
+        <v>-0.007628219092641213</v>
       </c>
       <c r="F75">
-        <v>-0.107689632182633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09732289911694846</v>
+      </c>
+      <c r="G75">
+        <v>-0.1183549369439321</v>
+      </c>
+      <c r="H75">
+        <v>0.1134692191257539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2394145823418166</v>
+        <v>-0.1777593069789088</v>
       </c>
       <c r="C76">
-        <v>-0.154439740210261</v>
+        <v>-0.08127497935910431</v>
       </c>
       <c r="D76">
-        <v>0.06961227435611114</v>
+        <v>0.1805126274231911</v>
       </c>
       <c r="E76">
-        <v>-0.1802108951095567</v>
+        <v>0.04018869726153711</v>
       </c>
       <c r="F76">
-        <v>-0.1951669221436605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09067368833220388</v>
+      </c>
+      <c r="G76">
+        <v>-0.1126481896554808</v>
+      </c>
+      <c r="H76">
+        <v>0.1133574221235108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09449653663731816</v>
+        <v>-0.06280404270260719</v>
       </c>
       <c r="C77">
-        <v>-0.09158870748738053</v>
+        <v>-0.009421017840411937</v>
       </c>
       <c r="D77">
-        <v>-0.1112622636581094</v>
+        <v>0.08480868806634424</v>
       </c>
       <c r="E77">
-        <v>-0.04015415643855626</v>
+        <v>-0.01776242127003198</v>
       </c>
       <c r="F77">
-        <v>0.153783802939842</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01757392627322794</v>
+      </c>
+      <c r="G77">
+        <v>0.07876307118636459</v>
+      </c>
+      <c r="H77">
+        <v>-0.02288033682216861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06293991144248953</v>
+        <v>-0.03388619717831397</v>
       </c>
       <c r="C78">
-        <v>-0.04671389367197131</v>
+        <v>-0.01140068339962685</v>
       </c>
       <c r="D78">
-        <v>-0.07211390818782672</v>
+        <v>0.0709482698638331</v>
       </c>
       <c r="E78">
-        <v>-0.07023662774679</v>
+        <v>0.001645320571523709</v>
       </c>
       <c r="F78">
-        <v>0.09141074660866962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01843368105357937</v>
+      </c>
+      <c r="G78">
+        <v>0.06738439446291934</v>
+      </c>
+      <c r="H78">
+        <v>-0.08949188820854763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6619450758088491</v>
+        <v>-0.1255088784939251</v>
       </c>
       <c r="C80">
-        <v>0.7296068728396827</v>
+        <v>-0.02774723130866368</v>
       </c>
       <c r="D80">
-        <v>-0.07042357448298106</v>
+        <v>0.09640894224857284</v>
       </c>
       <c r="E80">
-        <v>0.01125161830772</v>
+        <v>0.9308219108431635</v>
       </c>
       <c r="F80">
-        <v>0.04389070443514827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2243666296714753</v>
+      </c>
+      <c r="G80">
+        <v>0.1619315824136987</v>
+      </c>
+      <c r="H80">
+        <v>0.006214676043995319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1491441530721459</v>
+        <v>-0.1457803457478596</v>
       </c>
       <c r="C81">
-        <v>-0.11299806982461</v>
+        <v>-0.05784213540664051</v>
       </c>
       <c r="D81">
-        <v>0.0630306635454987</v>
+        <v>0.1185600272378001</v>
       </c>
       <c r="E81">
-        <v>-0.112230857208921</v>
+        <v>0.01105983932232318</v>
       </c>
       <c r="F81">
-        <v>-0.1091827271591973</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06685377248947451</v>
+      </c>
+      <c r="G81">
+        <v>-0.07586273551822165</v>
+      </c>
+      <c r="H81">
+        <v>0.07187187471174913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02428344561869008</v>
+        <v>-0.03037496299815817</v>
       </c>
       <c r="C83">
-        <v>-0.03071064234996073</v>
+        <v>-0.004462062024160701</v>
       </c>
       <c r="D83">
-        <v>-0.02491509353386894</v>
+        <v>0.02554085272678731</v>
       </c>
       <c r="E83">
-        <v>-0.008994980957791011</v>
+        <v>-0.009498465203442868</v>
       </c>
       <c r="F83">
-        <v>0.06621932682252606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008197671330453231</v>
+      </c>
+      <c r="G83">
+        <v>0.04553240522943327</v>
+      </c>
+      <c r="H83">
+        <v>-0.04300407850677223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2106796579730545</v>
+        <v>-0.1992494247866254</v>
       </c>
       <c r="C85">
-        <v>-0.1672278404589711</v>
+        <v>-0.07242108248200603</v>
       </c>
       <c r="D85">
-        <v>0.05066304948259825</v>
+        <v>0.1897752839305832</v>
       </c>
       <c r="E85">
-        <v>-0.1328785411806256</v>
+        <v>-0.004080641536700868</v>
       </c>
       <c r="F85">
-        <v>-0.1399512416091141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08080425347020855</v>
+      </c>
+      <c r="G85">
+        <v>-0.1325853525696538</v>
+      </c>
+      <c r="H85">
+        <v>0.07483566260101446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01211645597616907</v>
+        <v>-0.01897239378787833</v>
       </c>
       <c r="C86">
-        <v>-0.004392469139255548</v>
+        <v>-0.002069813755964075</v>
       </c>
       <c r="D86">
-        <v>-0.04456427594265669</v>
+        <v>0.04161557936713224</v>
       </c>
       <c r="E86">
-        <v>-0.02832869347540462</v>
+        <v>0.003911340398556504</v>
       </c>
       <c r="F86">
-        <v>0.0508016593565849</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.006117517031579717</v>
+      </c>
+      <c r="G86">
+        <v>0.05285285746729068</v>
+      </c>
+      <c r="H86">
+        <v>-0.09728556362824431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03893405848128155</v>
+        <v>-0.02052530144326747</v>
       </c>
       <c r="C87">
-        <v>-0.02162475016547108</v>
+        <v>-0.002057585014107779</v>
       </c>
       <c r="D87">
-        <v>-0.02830274697980572</v>
+        <v>0.04830919065191244</v>
       </c>
       <c r="E87">
-        <v>-0.01010414286235503</v>
+        <v>0.002994956295537747</v>
       </c>
       <c r="F87">
-        <v>0.1119345332414217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.002013320566760673</v>
+      </c>
+      <c r="G87">
+        <v>0.08490898930365619</v>
+      </c>
+      <c r="H87">
+        <v>-0.08218567226305827</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01671620402861675</v>
+        <v>-0.03789253084189328</v>
       </c>
       <c r="C88">
-        <v>0.002338094138412391</v>
+        <v>0.01185283726591266</v>
       </c>
       <c r="D88">
-        <v>0.01063008926054783</v>
+        <v>0.0235850718829865</v>
       </c>
       <c r="E88">
-        <v>-0.0120631035302484</v>
+        <v>0.01582086915977267</v>
       </c>
       <c r="F88">
-        <v>-0.01289704986431225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01841266194010122</v>
+      </c>
+      <c r="G88">
+        <v>-0.001912659013470886</v>
+      </c>
+      <c r="H88">
+        <v>-0.0142374512020108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08261046396664212</v>
+        <v>-0.2857827207634125</v>
       </c>
       <c r="C89">
-        <v>-0.05608840499614456</v>
+        <v>0.01263080032661441</v>
       </c>
       <c r="D89">
-        <v>0.2527411600098083</v>
+        <v>-0.3249801916368255</v>
       </c>
       <c r="E89">
-        <v>0.2262004809803274</v>
+        <v>-0.01376265210756587</v>
       </c>
       <c r="F89">
-        <v>0.09784110355600537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02538905606397019</v>
+      </c>
+      <c r="G89">
+        <v>-0.01408766692272602</v>
+      </c>
+      <c r="H89">
+        <v>-0.01899702966005786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07816377467451574</v>
+        <v>-0.2341474813788579</v>
       </c>
       <c r="C90">
-        <v>-0.02921900247919265</v>
+        <v>0.0122285103848255</v>
       </c>
       <c r="D90">
-        <v>0.2655645635833048</v>
+        <v>-0.2955190642089817</v>
       </c>
       <c r="E90">
-        <v>0.247130938430708</v>
+        <v>-0.00186195364646506</v>
       </c>
       <c r="F90">
-        <v>0.06560359604058877</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05273640944903497</v>
+      </c>
+      <c r="G90">
+        <v>-0.01006881358792537</v>
+      </c>
+      <c r="H90">
+        <v>0.04385661808013251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2376283300873017</v>
+        <v>-0.2171057521904225</v>
       </c>
       <c r="C91">
-        <v>-0.2084485407051236</v>
+        <v>-0.08512806609504137</v>
       </c>
       <c r="D91">
-        <v>0.05312918178647239</v>
+        <v>0.1691963255449024</v>
       </c>
       <c r="E91">
-        <v>-0.1390054853015022</v>
+        <v>-0.01232730733155142</v>
       </c>
       <c r="F91">
-        <v>-0.2307613357619108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08421365492800138</v>
+      </c>
+      <c r="G91">
+        <v>-0.1374433605594988</v>
+      </c>
+      <c r="H91">
+        <v>0.1462740752227386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1418386060861999</v>
+        <v>-0.2721419654180508</v>
       </c>
       <c r="C92">
-        <v>-0.07965347066552905</v>
+        <v>-0.05173998383559076</v>
       </c>
       <c r="D92">
-        <v>0.4100275941711771</v>
+        <v>-0.2163286294573297</v>
       </c>
       <c r="E92">
-        <v>0.1586976735391345</v>
+        <v>0.008593102005832579</v>
       </c>
       <c r="F92">
-        <v>-0.06694551264803783</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01495268186866845</v>
+      </c>
+      <c r="G92">
+        <v>0.02508688989873711</v>
+      </c>
+      <c r="H92">
+        <v>0.1166775582250871</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06657241887666303</v>
+        <v>-0.2627223091016524</v>
       </c>
       <c r="C93">
-        <v>-0.05972623267218422</v>
+        <v>0.002604906404110706</v>
       </c>
       <c r="D93">
-        <v>0.3260146789967622</v>
+        <v>-0.3040772592723089</v>
       </c>
       <c r="E93">
-        <v>0.3241189864507301</v>
+        <v>-0.02973125345989075</v>
       </c>
       <c r="F93">
-        <v>0.04182971589948036</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05205794287611614</v>
+      </c>
+      <c r="G93">
+        <v>-0.008514157638008288</v>
+      </c>
+      <c r="H93">
+        <v>-0.01230148812060343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2327936917312968</v>
+        <v>-0.2688092068375117</v>
       </c>
       <c r="C94">
-        <v>-0.2137483065950274</v>
+        <v>-0.08185715335075194</v>
       </c>
       <c r="D94">
-        <v>0.1271422594927673</v>
+        <v>0.1749090663878783</v>
       </c>
       <c r="E94">
-        <v>-0.2145657646207087</v>
+        <v>-0.01847614500488107</v>
       </c>
       <c r="F94">
-        <v>-0.1850954482621119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1955369565039339</v>
+      </c>
+      <c r="G94">
+        <v>-0.2615396132431708</v>
+      </c>
+      <c r="H94">
+        <v>0.3514347558307431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.008086144805799916</v>
+        <v>-0.04627893945014674</v>
       </c>
       <c r="C95">
-        <v>-0.08608013602182092</v>
+        <v>-0.03015556611688099</v>
       </c>
       <c r="D95">
-        <v>-0.06157671137728547</v>
+        <v>0.09117095909861442</v>
       </c>
       <c r="E95">
-        <v>-0.03190963387205375</v>
+        <v>-0.08006212103138392</v>
       </c>
       <c r="F95">
-        <v>0.01303739649903252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.008129831305645574</v>
+      </c>
+      <c r="G95">
+        <v>0.0442637001090348</v>
+      </c>
+      <c r="H95">
+        <v>-0.05208180321970542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1182297547283846</v>
+        <v>-0.1817417803894524</v>
       </c>
       <c r="C98">
-        <v>-0.1271629440908908</v>
+        <v>-0.05121970576629044</v>
       </c>
       <c r="D98">
-        <v>-0.0002727878131650401</v>
+        <v>0.05094285985091579</v>
       </c>
       <c r="E98">
-        <v>0.08570679184016397</v>
+        <v>-0.06219375685788578</v>
       </c>
       <c r="F98">
-        <v>0.1458227432070962</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.006400783635967553</v>
+      </c>
+      <c r="G98">
+        <v>0.09024485723026959</v>
+      </c>
+      <c r="H98">
+        <v>-0.3303527700141548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01100329276743701</v>
+        <v>-0.01430092005856131</v>
       </c>
       <c r="C101">
-        <v>-0.000429770961908814</v>
+        <v>0.0007997306841851636</v>
       </c>
       <c r="D101">
-        <v>-0.03933031269301279</v>
+        <v>0.01681191018509652</v>
       </c>
       <c r="E101">
-        <v>-0.0677023843703454</v>
+        <v>0.003272517676401862</v>
       </c>
       <c r="F101">
-        <v>0.1775191660150904</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01592134310286195</v>
+      </c>
+      <c r="G101">
+        <v>0.103018892972384</v>
+      </c>
+      <c r="H101">
+        <v>0.01659735424471935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09551898368438599</v>
+        <v>-0.09734997801214348</v>
       </c>
       <c r="C102">
-        <v>-0.07380843519392417</v>
+        <v>-0.02825760952763192</v>
       </c>
       <c r="D102">
-        <v>0.01990567166868802</v>
+        <v>0.09165629741364076</v>
       </c>
       <c r="E102">
-        <v>-0.07689408766099783</v>
+        <v>0.003105061273611323</v>
       </c>
       <c r="F102">
-        <v>-0.08684737293530125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04771082926051769</v>
+      </c>
+      <c r="G102">
+        <v>-0.06724062009687061</v>
+      </c>
+      <c r="H102">
+        <v>0.05555656029112148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04142520503246156</v>
+        <v>-0.01458412997755656</v>
       </c>
       <c r="C103">
-        <v>-0.01778090726709966</v>
+        <v>-0.005494180214504864</v>
       </c>
       <c r="D103">
-        <v>0.0002554271894486797</v>
+        <v>0.01682941809969585</v>
       </c>
       <c r="E103">
-        <v>-0.04594770945929529</v>
+        <v>0.01192283866078167</v>
       </c>
       <c r="F103">
-        <v>-0.00268342722359795</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.007371161606550027</v>
+      </c>
+      <c r="G103">
+        <v>0.002686197896718089</v>
+      </c>
+      <c r="H103">
+        <v>0.01205402862360879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.158162215365339</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9653930603141699</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1178736861483771</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02646288174436651</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1303127978807306</v>
+      </c>
+      <c r="G104">
+        <v>-0.009306908877934322</v>
+      </c>
+      <c r="H104">
+        <v>0.04722009440198204</v>
       </c>
     </row>
   </sheetData>
